--- a/ProbableCasesOverTimeByCounty/2021-03-09.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-03-09.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/08/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/09/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Probable 2021-03-08</t>
+  </si>
+  <si>
+    <t>Probable 2021-03-09</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1411,6 +1414,7 @@
     <col min="127" max="127" width="12.0" customWidth="true"/>
     <col min="128" max="128" width="12.0" customWidth="true"/>
     <col min="129" max="129" width="12.0" customWidth="true"/>
+    <col min="130" max="130" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1811,10 +1815,13 @@
       <c r="DY3" t="s" s="10">
         <v>130</v>
       </c>
+      <c r="DZ3" t="s" s="10">
+        <v>131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2199,11 +2206,14 @@
       </c>
       <c r="DY4" t="n">
         <v>1268.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1267.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2587,12 +2597,15 @@
         <v>0.0</v>
       </c>
       <c r="DY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2976,12 +2989,15 @@
         <v>3318.0</v>
       </c>
       <c r="DY6" t="n">
+        <v>3318.0</v>
+      </c>
+      <c r="DZ6" t="n">
         <v>3318.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3365,12 +3381,15 @@
         <v>277.0</v>
       </c>
       <c r="DY7" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DZ7" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3754,12 +3773,15 @@
         <v>100.0</v>
       </c>
       <c r="DY8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DZ8" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -4143,12 +4165,15 @@
         <v>42.0</v>
       </c>
       <c r="DY9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DZ9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4532,12 +4557,15 @@
         <v>1353.0</v>
       </c>
       <c r="DY10" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="DZ10" t="n">
         <v>1353.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4921,12 +4949,15 @@
         <v>305.0</v>
       </c>
       <c r="DY11" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="DZ11" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -5311,11 +5342,14 @@
       </c>
       <c r="DY12" t="n">
         <v>215.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5700,11 +5734,14 @@
       </c>
       <c r="DY13" t="n">
         <v>365.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>367.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -6089,11 +6126,14 @@
       </c>
       <c r="DY14" t="n">
         <v>1941.0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>1945.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -6477,12 +6517,15 @@
         <v>169.0</v>
       </c>
       <c r="DY15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DZ15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6866,12 +6909,15 @@
         <v>372.0</v>
       </c>
       <c r="DY16" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="DZ16" t="n">
         <v>372.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7255,12 +7301,15 @@
         <v>0.0</v>
       </c>
       <c r="DY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -7645,11 +7694,14 @@
       </c>
       <c r="DY18" t="n">
         <v>29485.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>29506.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -8033,12 +8085,15 @@
         <v>116.0</v>
       </c>
       <c r="DY19" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="DZ19" t="n">
         <v>116.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -8422,12 +8477,15 @@
         <v>8.0</v>
       </c>
       <c r="DY20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DZ20" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -8812,11 +8870,14 @@
       </c>
       <c r="DY21" t="n">
         <v>292.0</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>294.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -9201,11 +9262,14 @@
       </c>
       <c r="DY22" t="n">
         <v>2067.0</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>2074.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -9590,11 +9654,14 @@
       </c>
       <c r="DY23" t="n">
         <v>5353.0</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>5402.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -9979,11 +10046,14 @@
       </c>
       <c r="DY24" t="n">
         <v>3739.0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>3746.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -10367,12 +10437,15 @@
         <v>81.0</v>
       </c>
       <c r="DY25" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="DZ25" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -10756,12 +10829,15 @@
         <v>60.0</v>
       </c>
       <c r="DY26" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DZ26" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -11146,11 +11222,14 @@
       </c>
       <c r="DY27" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -11534,12 +11613,15 @@
         <v>2216.0</v>
       </c>
       <c r="DY28" t="n">
+        <v>2216.0</v>
+      </c>
+      <c r="DZ28" t="n">
         <v>2216.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -11924,11 +12006,14 @@
       </c>
       <c r="DY29" t="n">
         <v>398.0</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -12313,11 +12398,14 @@
       </c>
       <c r="DY30" t="n">
         <v>456.0</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>460.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -12702,11 +12790,14 @@
       </c>
       <c r="DY31" t="n">
         <v>290.0</v>
+      </c>
+      <c r="DZ31" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -13090,12 +13181,15 @@
         <v>399.0</v>
       </c>
       <c r="DY32" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="DZ32" t="n">
         <v>399.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -13480,11 +13574,14 @@
       </c>
       <c r="DY33" t="n">
         <v>559.0</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -13868,12 +13965,15 @@
         <v>0.0</v>
       </c>
       <c r="DY34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -14257,12 +14357,15 @@
         <v>391.0</v>
       </c>
       <c r="DY35" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="DZ35" t="n">
         <v>391.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -14647,11 +14750,14 @@
       </c>
       <c r="DY36" t="n">
         <v>148.0</v>
+      </c>
+      <c r="DZ36" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -15036,11 +15142,14 @@
       </c>
       <c r="DY37" t="n">
         <v>668.0</v>
+      </c>
+      <c r="DZ37" t="n">
+        <v>669.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -15424,12 +15533,15 @@
         <v>251.0</v>
       </c>
       <c r="DY38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DZ38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -15813,12 +15925,15 @@
         <v>0.0</v>
       </c>
       <c r="DY39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -16203,11 +16318,14 @@
       </c>
       <c r="DY40" t="n">
         <v>1816.0</v>
+      </c>
+      <c r="DZ40" t="n">
+        <v>1820.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -16591,12 +16709,15 @@
         <v>23.0</v>
       </c>
       <c r="DY41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DZ41" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -16980,12 +17101,15 @@
         <v>81.0</v>
       </c>
       <c r="DY42" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="DZ42" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -17370,11 +17494,14 @@
       </c>
       <c r="DY43" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -17759,11 +17886,14 @@
       </c>
       <c r="DY44" t="n">
         <v>222.0</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -18147,12 +18277,15 @@
         <v>236.0</v>
       </c>
       <c r="DY45" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="DZ45" t="n">
         <v>236.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -18537,11 +18670,14 @@
       </c>
       <c r="DY46" t="n">
         <v>13627.0</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>13690.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -18925,12 +19061,15 @@
         <v>70.0</v>
       </c>
       <c r="DY47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DZ47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -19315,11 +19454,14 @@
       </c>
       <c r="DY48" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DZ48" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -19704,11 +19846,14 @@
       </c>
       <c r="DY49" t="n">
         <v>4382.0</v>
+      </c>
+      <c r="DZ49" t="n">
+        <v>4396.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -20092,12 +20237,15 @@
         <v>345.0</v>
       </c>
       <c r="DY50" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="DZ50" t="n">
         <v>345.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -20481,12 +20629,15 @@
         <v>142.0</v>
       </c>
       <c r="DY51" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="DZ51" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -20871,11 +21022,14 @@
       </c>
       <c r="DY52" t="n">
         <v>412.0</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -21260,11 +21414,14 @@
       </c>
       <c r="DY53" t="n">
         <v>244.0</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -21649,11 +21806,14 @@
       </c>
       <c r="DY54" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -22038,11 +22198,14 @@
       </c>
       <c r="DY55" t="n">
         <v>304.0</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -22426,12 +22589,15 @@
         <v>356.0</v>
       </c>
       <c r="DY56" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="DZ56" t="n">
         <v>356.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -22815,12 +22981,15 @@
         <v>207.0</v>
       </c>
       <c r="DY57" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="DZ57" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -23204,12 +23373,15 @@
         <v>23.0</v>
       </c>
       <c r="DY58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DZ58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -23593,12 +23765,15 @@
         <v>134.0</v>
       </c>
       <c r="DY59" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DZ59" t="n">
         <v>134.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -23983,11 +24158,14 @@
       </c>
       <c r="DY60" t="n">
         <v>36460.0</v>
+      </c>
+      <c r="DZ60" t="n">
+        <v>36536.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -24371,12 +24549,15 @@
         <v>0.0</v>
       </c>
       <c r="DY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -24761,11 +24942,14 @@
       </c>
       <c r="DY62" t="n">
         <v>646.0</v>
+      </c>
+      <c r="DZ62" t="n">
+        <v>648.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -25150,11 +25334,14 @@
       </c>
       <c r="DY63" t="n">
         <v>126.0</v>
+      </c>
+      <c r="DZ63" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -25539,11 +25726,14 @@
       </c>
       <c r="DY64" t="n">
         <v>16624.0</v>
+      </c>
+      <c r="DZ64" t="n">
+        <v>16914.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -25927,12 +26117,15 @@
         <v>0.0</v>
       </c>
       <c r="DY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -26316,12 +26509,15 @@
         <v>57.0</v>
       </c>
       <c r="DY66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DZ66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -26706,11 +26902,14 @@
       </c>
       <c r="DY67" t="n">
         <v>182.0</v>
+      </c>
+      <c r="DZ67" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -27095,11 +27294,14 @@
       </c>
       <c r="DY68" t="n">
         <v>178.0</v>
+      </c>
+      <c r="DZ68" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -27484,11 +27686,14 @@
       </c>
       <c r="DY69" t="n">
         <v>114.0</v>
+      </c>
+      <c r="DZ69" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -27873,11 +28078,14 @@
       </c>
       <c r="DY70" t="n">
         <v>388.0</v>
+      </c>
+      <c r="DZ70" t="n">
+        <v>389.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -28262,11 +28470,14 @@
       </c>
       <c r="DY71" t="n">
         <v>7945.0</v>
+      </c>
+      <c r="DZ71" t="n">
+        <v>7961.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -28651,11 +28862,14 @@
       </c>
       <c r="DY72" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DZ72" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -29040,11 +29254,14 @@
       </c>
       <c r="DY73" t="n">
         <v>3256.0</v>
+      </c>
+      <c r="DZ73" t="n">
+        <v>3261.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -29428,12 +29645,15 @@
         <v>0.0</v>
       </c>
       <c r="DY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -29818,11 +30038,14 @@
       </c>
       <c r="DY75" t="n">
         <v>1270.0</v>
+      </c>
+      <c r="DZ75" t="n">
+        <v>1272.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -30206,12 +30429,15 @@
         <v>179.0</v>
       </c>
       <c r="DY76" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="DZ76" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -30596,11 +30822,14 @@
       </c>
       <c r="DY77" t="n">
         <v>690.0</v>
+      </c>
+      <c r="DZ77" t="n">
+        <v>689.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -30985,11 +31214,14 @@
       </c>
       <c r="DY78" t="n">
         <v>884.0</v>
+      </c>
+      <c r="DZ78" t="n">
+        <v>892.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -31373,12 +31605,15 @@
         <v>0.0</v>
       </c>
       <c r="DY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -31762,12 +31997,15 @@
         <v>443.0</v>
       </c>
       <c r="DY80" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="DZ80" t="n">
         <v>443.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -32151,12 +32389,15 @@
         <v>32.0</v>
       </c>
       <c r="DY81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DZ81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -32540,12 +32781,15 @@
         <v>7675.0</v>
       </c>
       <c r="DY82" t="n">
+        <v>7675.0</v>
+      </c>
+      <c r="DZ82" t="n">
         <v>7675.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -32929,12 +33173,15 @@
         <v>209.0</v>
       </c>
       <c r="DY83" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DZ83" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -33319,11 +33566,14 @@
       </c>
       <c r="DY84" t="n">
         <v>721.0</v>
+      </c>
+      <c r="DZ84" t="n">
+        <v>722.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -33708,11 +33958,14 @@
       </c>
       <c r="DY85" t="n">
         <v>562.0</v>
+      </c>
+      <c r="DZ85" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -34096,12 +34349,15 @@
         <v>0.0</v>
       </c>
       <c r="DY86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -34486,11 +34742,14 @@
       </c>
       <c r="DY87" t="n">
         <v>4920.0</v>
+      </c>
+      <c r="DZ87" t="n">
+        <v>4931.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -34874,12 +35133,15 @@
         <v>156.0</v>
       </c>
       <c r="DY88" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DZ88" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -35264,11 +35526,14 @@
       </c>
       <c r="DY89" t="n">
         <v>796.0</v>
+      </c>
+      <c r="DZ89" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -35652,12 +35917,15 @@
         <v>61.0</v>
       </c>
       <c r="DY90" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DZ90" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -36041,12 +36309,15 @@
         <v>153.0</v>
       </c>
       <c r="DY91" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="DZ91" t="n">
         <v>153.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -36430,12 +36701,15 @@
         <v>336.0</v>
       </c>
       <c r="DY92" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="DZ92" t="n">
         <v>336.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -36820,11 +37094,14 @@
       </c>
       <c r="DY93" t="n">
         <v>285.0</v>
+      </c>
+      <c r="DZ93" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -37208,12 +37485,15 @@
         <v>0.0</v>
       </c>
       <c r="DY94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -37598,11 +37878,14 @@
       </c>
       <c r="DY95" t="n">
         <v>4789.0</v>
+      </c>
+      <c r="DZ95" t="n">
+        <v>4798.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -37986,12 +38269,15 @@
         <v>313.0</v>
       </c>
       <c r="DY96" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="DZ96" t="n">
         <v>313.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -38376,11 +38662,14 @@
       </c>
       <c r="DY97" t="n">
         <v>3252.0</v>
+      </c>
+      <c r="DZ97" t="n">
+        <v>3269.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -38764,12 +39053,15 @@
         <v>0.0</v>
       </c>
       <c r="DY98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -39154,11 +39446,14 @@
       </c>
       <c r="DY99" t="n">
         <v>98.0</v>
+      </c>
+      <c r="DZ99" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -39542,12 +39837,15 @@
         <v>50.0</v>
       </c>
       <c r="DY100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DZ100" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -39931,12 +40229,15 @@
         <v>454.0</v>
       </c>
       <c r="DY101" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="DZ101" t="n">
         <v>454.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -40320,12 +40621,15 @@
         <v>55.0</v>
       </c>
       <c r="DY102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DZ102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -40709,12 +41013,15 @@
         <v>2495.0</v>
       </c>
       <c r="DY103" t="n">
+        <v>2495.0</v>
+      </c>
+      <c r="DZ103" t="n">
         <v>2495.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -41098,12 +41405,15 @@
         <v>0.0</v>
       </c>
       <c r="DY104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -41488,11 +41798,14 @@
       </c>
       <c r="DY105" t="n">
         <v>2224.0</v>
+      </c>
+      <c r="DZ105" t="n">
+        <v>2223.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -41876,12 +42189,15 @@
         <v>102.0</v>
       </c>
       <c r="DY106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DZ106" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -42265,12 +42581,15 @@
         <v>237.0</v>
       </c>
       <c r="DY107" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="DZ107" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -42655,11 +42974,14 @@
       </c>
       <c r="DY108" t="n">
         <v>1828.0</v>
+      </c>
+      <c r="DZ108" t="n">
+        <v>1832.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -43043,12 +43365,15 @@
         <v>43.0</v>
       </c>
       <c r="DY109" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="DZ109" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -43433,11 +43758,14 @@
       </c>
       <c r="DY110" t="n">
         <v>1847.0</v>
+      </c>
+      <c r="DZ110" t="n">
+        <v>1858.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -43822,11 +44150,14 @@
       </c>
       <c r="DY111" t="n">
         <v>25934.0</v>
+      </c>
+      <c r="DZ111" t="n">
+        <v>25998.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -44211,11 +44542,14 @@
       </c>
       <c r="DY112" t="n">
         <v>664.0</v>
+      </c>
+      <c r="DZ112" t="n">
+        <v>666.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -44599,12 +44933,15 @@
         <v>271.0</v>
       </c>
       <c r="DY113" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="DZ113" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -44989,11 +45326,14 @@
       </c>
       <c r="DY114" t="n">
         <v>2085.0</v>
+      </c>
+      <c r="DZ114" t="n">
+        <v>2089.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -45378,11 +45718,14 @@
       </c>
       <c r="DY115" t="n">
         <v>1424.0</v>
+      </c>
+      <c r="DZ115" t="n">
+        <v>1425.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -45766,12 +46109,15 @@
         <v>699.0</v>
       </c>
       <c r="DY116" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="DZ116" t="n">
         <v>699.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -46156,11 +46502,14 @@
       </c>
       <c r="DY117" t="n">
         <v>1521.0</v>
+      </c>
+      <c r="DZ117" t="n">
+        <v>1520.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -46544,12 +46893,15 @@
         <v>79.0</v>
       </c>
       <c r="DY118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DZ118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -46933,12 +47285,15 @@
         <v>0.0</v>
       </c>
       <c r="DY119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -47322,12 +47677,15 @@
         <v>467.0</v>
       </c>
       <c r="DY120" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="DZ120" t="n">
         <v>467.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -47712,11 +48070,14 @@
       </c>
       <c r="DY121" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DZ121" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -48100,12 +48461,15 @@
         <v>78.0</v>
       </c>
       <c r="DY122" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DZ122" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -48489,12 +48853,15 @@
         <v>250.0</v>
       </c>
       <c r="DY123" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="DZ123" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -48879,11 +49246,14 @@
       </c>
       <c r="DY124" t="n">
         <v>1393.0</v>
+      </c>
+      <c r="DZ124" t="n">
+        <v>1398.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -49268,11 +49638,14 @@
       </c>
       <c r="DY125" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DZ125" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -49656,12 +50029,15 @@
         <v>0.0</v>
       </c>
       <c r="DY126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -50045,12 +50421,15 @@
         <v>33.0</v>
       </c>
       <c r="DY127" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DZ127" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -50435,11 +50814,14 @@
       </c>
       <c r="DY128" t="n">
         <v>489.0</v>
+      </c>
+      <c r="DZ128" t="n">
+        <v>490.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -50824,11 +51206,14 @@
       </c>
       <c r="DY129" t="n">
         <v>2609.0</v>
+      </c>
+      <c r="DZ129" t="n">
+        <v>2620.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -51212,12 +51597,15 @@
         <v>677.0</v>
       </c>
       <c r="DY130" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="DZ130" t="n">
         <v>677.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -51601,12 +51989,15 @@
         <v>206.0</v>
       </c>
       <c r="DY131" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="DZ131" t="n">
         <v>206.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -51991,11 +52382,14 @@
       </c>
       <c r="DY132" t="n">
         <v>2248.0</v>
+      </c>
+      <c r="DZ132" t="n">
+        <v>2285.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -52379,12 +52773,15 @@
         <v>1404.0</v>
       </c>
       <c r="DY133" t="n">
+        <v>1404.0</v>
+      </c>
+      <c r="DZ133" t="n">
         <v>1404.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -52768,12 +53165,15 @@
         <v>16.0</v>
       </c>
       <c r="DY134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DZ134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -53158,11 +53558,14 @@
       </c>
       <c r="DY135" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DZ135" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -53547,11 +53950,14 @@
       </c>
       <c r="DY136" t="n">
         <v>2061.0</v>
+      </c>
+      <c r="DZ136" t="n">
+        <v>2072.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -53935,12 +54341,15 @@
         <v>54.0</v>
       </c>
       <c r="DY137" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DZ137" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -54324,12 +54733,15 @@
         <v>6.0</v>
       </c>
       <c r="DY138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DZ138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -54713,12 +55125,15 @@
         <v>14.0</v>
       </c>
       <c r="DY139" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DZ139" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -55102,12 +55517,15 @@
         <v>586.0</v>
       </c>
       <c r="DY140" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="DZ140" t="n">
         <v>586.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -55491,12 +55909,15 @@
         <v>83.0</v>
       </c>
       <c r="DY141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DZ141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -55881,11 +56302,14 @@
       </c>
       <c r="DY142" t="n">
         <v>3080.0</v>
+      </c>
+      <c r="DZ142" t="n">
+        <v>3097.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -56270,11 +56694,14 @@
       </c>
       <c r="DY143" t="n">
         <v>435.0</v>
+      </c>
+      <c r="DZ143" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -56658,12 +57085,15 @@
         <v>324.0</v>
       </c>
       <c r="DY144" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="DZ144" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -57048,11 +57478,14 @@
       </c>
       <c r="DY145" t="n">
         <v>133.0</v>
+      </c>
+      <c r="DZ145" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -57437,11 +57870,14 @@
       </c>
       <c r="DY146" t="n">
         <v>435.0</v>
+      </c>
+      <c r="DZ146" t="n">
+        <v>437.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -57826,11 +58262,14 @@
       </c>
       <c r="DY147" t="n">
         <v>1087.0</v>
+      </c>
+      <c r="DZ147" t="n">
+        <v>1090.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -58215,11 +58654,14 @@
       </c>
       <c r="DY148" t="n">
         <v>330.0</v>
+      </c>
+      <c r="DZ148" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -58604,11 +59046,14 @@
       </c>
       <c r="DY149" t="n">
         <v>1621.0</v>
+      </c>
+      <c r="DZ149" t="n">
+        <v>1626.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -58992,12 +59437,15 @@
         <v>575.0</v>
       </c>
       <c r="DY150" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="DZ150" t="n">
         <v>575.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -59381,12 +59829,15 @@
         <v>24.0</v>
       </c>
       <c r="DY151" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DZ151" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -59771,11 +60222,14 @@
       </c>
       <c r="DY152" t="n">
         <v>249.0</v>
+      </c>
+      <c r="DZ152" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -60159,12 +60613,15 @@
         <v>449.0</v>
       </c>
       <c r="DY153" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="DZ153" t="n">
         <v>449.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -60548,12 +61005,15 @@
         <v>0.0</v>
       </c>
       <c r="DY154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -60937,12 +61397,15 @@
         <v>0.0</v>
       </c>
       <c r="DY155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -61326,12 +61789,15 @@
         <v>0.0</v>
       </c>
       <c r="DY156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -61715,12 +62181,15 @@
         <v>156.0</v>
       </c>
       <c r="DY157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DZ157" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -62104,12 +62573,15 @@
         <v>0.0</v>
       </c>
       <c r="DY158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -62493,12 +62965,15 @@
         <v>19.0</v>
       </c>
       <c r="DY159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DZ159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -62882,12 +63357,15 @@
         <v>232.0</v>
       </c>
       <c r="DY160" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="DZ160" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -63271,12 +63749,15 @@
         <v>183.0</v>
       </c>
       <c r="DY161" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="DZ161" t="n">
         <v>183.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -63660,12 +64141,15 @@
         <v>251.0</v>
       </c>
       <c r="DY162" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DZ162" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -64049,12 +64533,15 @@
         <v>146.0</v>
       </c>
       <c r="DY163" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="DZ163" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -64438,12 +64925,15 @@
         <v>397.0</v>
       </c>
       <c r="DY164" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="DZ164" t="n">
         <v>398.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -64827,12 +65317,15 @@
         <v>0.0</v>
       </c>
       <c r="DY165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -65217,11 +65710,14 @@
       </c>
       <c r="DY166" t="n">
         <v>1010.0</v>
+      </c>
+      <c r="DZ166" t="n">
+        <v>1011.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -65605,12 +66101,15 @@
         <v>65.0</v>
       </c>
       <c r="DY167" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DZ167" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -65994,12 +66493,15 @@
         <v>0.0</v>
       </c>
       <c r="DY168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -66384,11 +66886,14 @@
       </c>
       <c r="DY169" t="n">
         <v>1026.0</v>
+      </c>
+      <c r="DZ169" t="n">
+        <v>1039.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -66772,12 +67277,15 @@
         <v>57.0</v>
       </c>
       <c r="DY170" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DZ170" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -67161,12 +67669,15 @@
         <v>0.0</v>
       </c>
       <c r="DY171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -67550,12 +68061,15 @@
         <v>306.0</v>
       </c>
       <c r="DY172" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="DZ172" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -67940,11 +68454,14 @@
       </c>
       <c r="DY173" t="n">
         <v>8629.0</v>
+      </c>
+      <c r="DZ173" t="n">
+        <v>8745.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -68329,11 +68846,14 @@
       </c>
       <c r="DY174" t="n">
         <v>306.0</v>
+      </c>
+      <c r="DZ174" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -68718,11 +69238,14 @@
       </c>
       <c r="DY175" t="n">
         <v>270.0</v>
+      </c>
+      <c r="DZ175" t="n">
+        <v>271.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -69106,12 +69629,15 @@
         <v>49.0</v>
       </c>
       <c r="DY176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DZ176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -69496,11 +70022,14 @@
       </c>
       <c r="DY177" t="n">
         <v>961.0</v>
+      </c>
+      <c r="DZ177" t="n">
+        <v>966.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -69884,12 +70413,15 @@
         <v>2205.0</v>
       </c>
       <c r="DY178" t="n">
+        <v>2205.0</v>
+      </c>
+      <c r="DZ178" t="n">
         <v>2205.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -70274,11 +70806,14 @@
       </c>
       <c r="DY179" t="n">
         <v>291.0</v>
+      </c>
+      <c r="DZ179" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -70662,12 +71197,15 @@
         <v>0.0</v>
       </c>
       <c r="DY180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -71052,11 +71590,14 @@
       </c>
       <c r="DY181" t="n">
         <v>10207.0</v>
+      </c>
+      <c r="DZ181" t="n">
+        <v>10216.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -71441,11 +71982,14 @@
       </c>
       <c r="DY182" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DZ182" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -71829,12 +72373,15 @@
         <v>128.0</v>
       </c>
       <c r="DY183" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="DZ183" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -72218,12 +72765,15 @@
         <v>3831.0</v>
       </c>
       <c r="DY184" t="n">
+        <v>3831.0</v>
+      </c>
+      <c r="DZ184" t="n">
         <v>3831.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -72608,11 +73158,14 @@
       </c>
       <c r="DY185" t="n">
         <v>372.0</v>
+      </c>
+      <c r="DZ185" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -72997,11 +73550,14 @@
       </c>
       <c r="DY186" t="n">
         <v>558.0</v>
+      </c>
+      <c r="DZ186" t="n">
+        <v>559.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -73386,11 +73942,14 @@
       </c>
       <c r="DY187" t="n">
         <v>2951.0</v>
+      </c>
+      <c r="DZ187" t="n">
+        <v>2970.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -73774,12 +74333,15 @@
         <v>341.0</v>
       </c>
       <c r="DY188" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="DZ188" t="n">
         <v>341.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -74163,12 +74725,15 @@
         <v>270.0</v>
       </c>
       <c r="DY189" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="DZ189" t="n">
         <v>270.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -74552,12 +75117,15 @@
         <v>1587.0</v>
       </c>
       <c r="DY190" t="n">
+        <v>1587.0</v>
+      </c>
+      <c r="DZ190" t="n">
         <v>1587.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -74941,12 +75509,15 @@
         <v>0.0</v>
       </c>
       <c r="DY191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -75331,11 +75902,14 @@
       </c>
       <c r="DY192" t="n">
         <v>168.0</v>
+      </c>
+      <c r="DZ192" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -75720,11 +76294,14 @@
       </c>
       <c r="DY193" t="n">
         <v>377.0</v>
+      </c>
+      <c r="DZ193" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -76108,12 +76685,15 @@
         <v>0.0</v>
       </c>
       <c r="DY194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -76497,12 +77077,15 @@
         <v>173.0</v>
       </c>
       <c r="DY195" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="DZ195" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -76886,12 +77469,15 @@
         <v>35.0</v>
       </c>
       <c r="DY196" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DZ196" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -77276,11 +77862,14 @@
       </c>
       <c r="DY197" t="n">
         <v>254.0</v>
+      </c>
+      <c r="DZ197" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -77664,12 +78253,15 @@
         <v>702.0</v>
       </c>
       <c r="DY198" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="DZ198" t="n">
         <v>702.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -78053,12 +78645,15 @@
         <v>61.0</v>
       </c>
       <c r="DY199" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DZ199" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -78442,12 +79037,15 @@
         <v>3.0</v>
       </c>
       <c r="DY200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DZ200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -78832,11 +79430,14 @@
       </c>
       <c r="DY201" t="n">
         <v>405.0</v>
+      </c>
+      <c r="DZ201" t="n">
+        <v>406.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -79221,11 +79822,14 @@
       </c>
       <c r="DY202" t="n">
         <v>1909.0</v>
+      </c>
+      <c r="DZ202" t="n">
+        <v>1919.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -79609,12 +80213,15 @@
         <v>488.0</v>
       </c>
       <c r="DY203" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="DZ203" t="n">
         <v>488.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -79999,11 +80606,14 @@
       </c>
       <c r="DY204" t="n">
         <v>1652.0</v>
+      </c>
+      <c r="DZ204" t="n">
+        <v>1654.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -80388,11 +80998,14 @@
       </c>
       <c r="DY205" t="n">
         <v>328.0</v>
+      </c>
+      <c r="DZ205" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -80776,12 +81389,15 @@
         <v>210.0</v>
       </c>
       <c r="DY206" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="DZ206" t="n">
         <v>210.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -81166,11 +81782,14 @@
       </c>
       <c r="DY207" t="n">
         <v>295.0</v>
+      </c>
+      <c r="DZ207" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -81554,12 +82173,15 @@
         <v>964.0</v>
       </c>
       <c r="DY208" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="DZ208" t="n">
         <v>964.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -81943,12 +82565,15 @@
         <v>251.0</v>
       </c>
       <c r="DY209" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="DZ209" t="n">
         <v>252.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -82332,12 +82957,15 @@
         <v>111.0</v>
       </c>
       <c r="DY210" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="DZ210" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -82721,12 +83349,15 @@
         <v>78.0</v>
       </c>
       <c r="DY211" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DZ211" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -83111,11 +83742,14 @@
       </c>
       <c r="DY212" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DZ212" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -83500,11 +84134,14 @@
       </c>
       <c r="DY213" t="n">
         <v>663.0</v>
+      </c>
+      <c r="DZ213" t="n">
+        <v>664.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -83888,12 +84525,15 @@
         <v>24.0</v>
       </c>
       <c r="DY214" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DZ214" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -84278,11 +84918,14 @@
       </c>
       <c r="DY215" t="n">
         <v>7913.0</v>
+      </c>
+      <c r="DZ215" t="n">
+        <v>7932.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -84666,12 +85309,15 @@
         <v>467.0</v>
       </c>
       <c r="DY216" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="DZ216" t="n">
         <v>467.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -85055,12 +85701,15 @@
         <v>1554.0</v>
       </c>
       <c r="DY217" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="DZ217" t="n">
         <v>1554.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -85444,12 +86093,15 @@
         <v>339.0</v>
       </c>
       <c r="DY218" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="DZ218" t="n">
         <v>339.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -85833,12 +86485,15 @@
         <v>59.0</v>
       </c>
       <c r="DY219" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DZ219" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -86223,11 +86878,14 @@
       </c>
       <c r="DY220" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DZ220" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -86611,12 +87269,15 @@
         <v>196.0</v>
       </c>
       <c r="DY221" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DZ221" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -87001,11 +87662,14 @@
       </c>
       <c r="DY222" t="n">
         <v>363.0</v>
+      </c>
+      <c r="DZ222" t="n">
+        <v>364.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -87390,11 +88054,14 @@
       </c>
       <c r="DY223" t="n">
         <v>37172.0</v>
+      </c>
+      <c r="DZ223" t="n">
+        <v>37221.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -87778,12 +88445,15 @@
         <v>8197.0</v>
       </c>
       <c r="DY224" t="n">
+        <v>8202.0</v>
+      </c>
+      <c r="DZ224" t="n">
         <v>8202.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -88167,12 +88837,15 @@
         <v>11.0</v>
       </c>
       <c r="DY225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DZ225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -88556,12 +89229,15 @@
         <v>0.0</v>
       </c>
       <c r="DY226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -88945,12 +89621,15 @@
         <v>23.0</v>
       </c>
       <c r="DY227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DZ227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -89335,11 +90014,14 @@
       </c>
       <c r="DY228" t="n">
         <v>953.0</v>
+      </c>
+      <c r="DZ228" t="n">
+        <v>957.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -89724,11 +90406,14 @@
       </c>
       <c r="DY229" t="n">
         <v>8082.0</v>
+      </c>
+      <c r="DZ229" t="n">
+        <v>8091.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -90112,12 +90797,15 @@
         <v>0.0</v>
       </c>
       <c r="DY230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -90502,11 +91190,14 @@
       </c>
       <c r="DY231" t="n">
         <v>198.0</v>
+      </c>
+      <c r="DZ231" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -90891,11 +91582,14 @@
       </c>
       <c r="DY232" t="n">
         <v>671.0</v>
+      </c>
+      <c r="DZ232" t="n">
+        <v>679.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -91279,12 +91973,15 @@
         <v>1865.0</v>
       </c>
       <c r="DY233" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="DZ233" t="n">
         <v>1868.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -91669,11 +92366,14 @@
       </c>
       <c r="DY234" t="n">
         <v>304.0</v>
+      </c>
+      <c r="DZ234" t="n">
+        <v>303.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -92057,12 +92757,15 @@
         <v>117.0</v>
       </c>
       <c r="DY235" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="DZ235" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -92446,12 +93149,15 @@
         <v>0.0</v>
       </c>
       <c r="DY236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -92836,11 +93542,14 @@
       </c>
       <c r="DY237" t="n">
         <v>1496.0</v>
+      </c>
+      <c r="DZ237" t="n">
+        <v>1498.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -93224,12 +93933,15 @@
         <v>9.0</v>
       </c>
       <c r="DY238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DZ238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -93614,11 +94326,14 @@
       </c>
       <c r="DY239" t="n">
         <v>834.0</v>
+      </c>
+      <c r="DZ239" t="n">
+        <v>835.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -94002,12 +94717,15 @@
         <v>464.0</v>
       </c>
       <c r="DY240" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="DZ240" t="n">
         <v>471.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -94392,11 +95110,14 @@
       </c>
       <c r="DY241" t="n">
         <v>466.0</v>
+      </c>
+      <c r="DZ241" t="n">
+        <v>467.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -94781,11 +95502,14 @@
       </c>
       <c r="DY242" t="n">
         <v>639.0</v>
+      </c>
+      <c r="DZ242" t="n">
+        <v>643.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -95169,12 +95893,15 @@
         <v>0.0</v>
       </c>
       <c r="DY243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -95558,12 +96285,15 @@
         <v>394.0</v>
       </c>
       <c r="DY244" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="DZ244" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -95947,12 +96677,15 @@
         <v>45.0</v>
       </c>
       <c r="DY245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DZ245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -96336,12 +97069,15 @@
         <v>0.0</v>
       </c>
       <c r="DY246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -96725,12 +97461,15 @@
         <v>281.0</v>
       </c>
       <c r="DY247" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="DZ247" t="n">
         <v>281.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -97114,12 +97853,15 @@
         <v>175.0</v>
       </c>
       <c r="DY248" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="DZ248" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -97504,11 +98246,14 @@
       </c>
       <c r="DY249" t="n">
         <v>5485.0</v>
+      </c>
+      <c r="DZ249" t="n">
+        <v>5518.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -97893,11 +98638,14 @@
       </c>
       <c r="DY250" t="n">
         <v>1054.0</v>
+      </c>
+      <c r="DZ250" t="n">
+        <v>1060.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -98281,12 +99029,15 @@
         <v>182.0</v>
       </c>
       <c r="DY251" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="DZ251" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -98671,11 +99422,14 @@
       </c>
       <c r="DY252" t="n">
         <v>1142.0</v>
+      </c>
+      <c r="DZ252" t="n">
+        <v>1145.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -99060,11 +99814,14 @@
       </c>
       <c r="DY253" t="n">
         <v>1381.0</v>
+      </c>
+      <c r="DZ253" t="n">
+        <v>1383.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -99448,12 +100205,15 @@
         <v>0.0</v>
       </c>
       <c r="DY254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DZ254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -99837,12 +100597,15 @@
         <v>227.0</v>
       </c>
       <c r="DY255" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="DZ255" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -100226,12 +100989,15 @@
         <v>204.0</v>
       </c>
       <c r="DY256" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="DZ256" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -100615,6 +101381,9 @@
         <v>201.0</v>
       </c>
       <c r="DY257" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="DZ257" t="n">
         <v>201.0</v>
       </c>
     </row>
